--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_전라선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6F9D68-E615-419C-BCAC-0BE2CA7B2830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7633B91-CB5F-4B70-A642-BF3BF8ADD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19296" yWindow="-84" windowWidth="19392" windowHeight="11472" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
+    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>MSE</t>
   </si>
@@ -142,6 +143,81 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+  </si>
+  <si>
+    <t>9월</t>
+  </si>
+  <si>
+    <t>10월</t>
+  </si>
+  <si>
+    <t>11월</t>
+  </si>
+  <si>
+    <t>12월</t>
+  </si>
+  <si>
+    <t>2024년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균오차 및 오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실적치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오차율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +228,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +256,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,13 +309,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -243,6 +331,10 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,12 +347,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -7485,13 +7591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A357A0FD-010D-412E-AFC7-03A49E5822D9}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="20.4140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
@@ -7499,21 +7605,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -7525,7 +7631,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="10"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -7561,7 +7667,7 @@
       <c r="C3" s="3">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>45017</v>
       </c>
       <c r="E3" s="5">
@@ -7599,7 +7705,7 @@
       <c r="C4" s="3">
         <v>19</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>45047</v>
       </c>
       <c r="E4" s="5">
@@ -7637,7 +7743,7 @@
       <c r="C5" s="3">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>45078</v>
       </c>
       <c r="E5" s="5">
@@ -7675,7 +7781,7 @@
       <c r="C6" s="3">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>45108</v>
       </c>
       <c r="E6" s="5">
@@ -7713,7 +7819,7 @@
       <c r="C7" s="3">
         <v>19</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>45139</v>
       </c>
       <c r="E7" s="5">
@@ -7751,7 +7857,7 @@
       <c r="C8" s="3">
         <v>16</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>45170</v>
       </c>
       <c r="E8" s="5">
@@ -7789,7 +7895,7 @@
       <c r="C9" s="3">
         <v>18</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>45200</v>
       </c>
       <c r="E9" s="5">
@@ -7827,7 +7933,7 @@
       <c r="C10" s="3">
         <v>18</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>45231</v>
       </c>
       <c r="E10" s="5">
@@ -7865,7 +7971,7 @@
       <c r="C11" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>45261</v>
       </c>
       <c r="E11" s="5">
@@ -7903,7 +8009,7 @@
       <c r="C12" s="3">
         <v>19</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>45292</v>
       </c>
       <c r="E12" s="5">
@@ -7941,7 +8047,7 @@
       <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>45323</v>
       </c>
       <c r="E13" s="5">
@@ -7968,24 +8074,24 @@
         <f>Forecasting_주중!D12</f>
         <v>381819.3125</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" s="8" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="str">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6" t="str">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -7997,7 +8103,7 @@
       <c r="C14" s="3">
         <v>16</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>45352</v>
       </c>
       <c r="E14" s="5">
@@ -8024,7 +8130,7 @@
         <f>Forecasting_주중!D13</f>
         <v>389194.125</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="11"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NBEATS</v>
@@ -8057,7 +8163,7 @@
       <c r="C15" s="3">
         <v>18</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>45383</v>
       </c>
       <c r="E15" s="5">
@@ -8123,7 +8229,7 @@
       <c r="C16" s="3">
         <v>18</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>45413</v>
       </c>
       <c r="E16" s="5">
@@ -8189,7 +8295,7 @@
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>45444</v>
       </c>
       <c r="E17" s="5">
@@ -8255,7 +8361,7 @@
       <c r="C18" s="3">
         <v>19</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>45474</v>
       </c>
       <c r="E18" s="5">
@@ -8321,7 +8427,7 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>45505</v>
       </c>
       <c r="E19" s="5">
@@ -8387,7 +8493,7 @@
       <c r="C20" s="3">
         <v>17</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>45536</v>
       </c>
       <c r="E20" s="5">
@@ -8453,7 +8559,7 @@
       <c r="C21" s="3">
         <v>19</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>45566</v>
       </c>
       <c r="E21" s="5">
@@ -8519,7 +8625,7 @@
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>45597</v>
       </c>
       <c r="E22" s="5">
@@ -8585,7 +8691,7 @@
       <c r="C23" s="3">
         <v>18</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="6">
         <v>45627</v>
       </c>
       <c r="E23" s="5">
@@ -8651,7 +8757,7 @@
       <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <v>45658</v>
       </c>
       <c r="E24" s="5">
@@ -8717,7 +8823,7 @@
       <c r="C25" s="3">
         <v>16</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <v>45689</v>
       </c>
       <c r="E25" s="5">
@@ -8783,7 +8889,7 @@
       <c r="C26" s="3">
         <v>17</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <v>45717</v>
       </c>
       <c r="E26" s="5">
@@ -8849,7 +8955,7 @@
       <c r="C27" s="3">
         <v>18</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <v>45748</v>
       </c>
       <c r="E27" s="5">
@@ -8915,7 +9021,7 @@
       <c r="C28" s="3">
         <v>17</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <v>45778</v>
       </c>
       <c r="E28" s="5">
@@ -8981,7 +9087,7 @@
       <c r="C29" s="3">
         <v>17</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <v>45809</v>
       </c>
       <c r="E29" s="5">
@@ -9047,7 +9153,7 @@
       <c r="C30" s="3">
         <v>19</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="6">
         <v>45839</v>
       </c>
       <c r="E30" s="5">
@@ -9113,7 +9219,7 @@
       <c r="C31" s="3">
         <v>16</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="6">
         <v>45870</v>
       </c>
       <c r="E31" s="5">
@@ -9179,7 +9285,7 @@
       <c r="C32" s="3">
         <v>18</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="6">
         <v>45901</v>
       </c>
       <c r="E32" s="5">
@@ -9245,7 +9351,7 @@
       <c r="C33" s="3">
         <v>18</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="6">
         <v>45931</v>
       </c>
       <c r="E33" s="5">
@@ -9311,7 +9417,7 @@
       <c r="C34" s="3">
         <v>16</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="6">
         <v>45962</v>
       </c>
       <c r="E34" s="5">
@@ -9377,7 +9483,7 @@
       <c r="C35" s="3">
         <v>19</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="6">
         <v>45992</v>
       </c>
       <c r="E35" s="5">
@@ -9447,4 +9553,808 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD174EE-B869-4D43-A8AB-867CB449CB8D}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.58203125" customWidth="1"/>
+    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.08203125" customWidth="1"/>
+    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Forecasting_전체!C2</f>
+        <v>733238</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Forecasting_전체!D2</f>
+        <v>717939.5</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3-C3</f>
+        <v>-15298.5</v>
+      </c>
+      <c r="F3" s="17">
+        <f>E3/C3</f>
+        <v>-2.0864303268515814E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Forecasting_주말!C2</f>
+        <v>407613</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Forecasting_주말!D2</f>
+        <v>419714.625</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3-G3</f>
+        <v>12101.625</v>
+      </c>
+      <c r="J3" s="17">
+        <f>I3/G3</f>
+        <v>2.9689006484091528E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f>Forecasting_주중!C2</f>
+        <v>325625</v>
+      </c>
+      <c r="L3" s="5">
+        <f>Forecasting_주중!D2</f>
+        <v>342253.40625</v>
+      </c>
+      <c r="M3" s="5">
+        <f>L3-K3</f>
+        <v>16628.40625</v>
+      </c>
+      <c r="N3" s="17">
+        <f>M3/K3</f>
+        <v>5.1066122840690981E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5">
+        <f>Forecasting_전체!C3</f>
+        <v>767495</v>
+      </c>
+      <c r="D4" s="5">
+        <f>Forecasting_전체!D3</f>
+        <v>737984.625</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+        <v>-29510.375</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+        <v>-3.8450250490231208E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Forecasting_주말!C3</f>
+        <v>354337</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Forecasting_주말!D3</f>
+        <v>378045.15625</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+        <v>23708.15625</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+        <v>6.6908497419123608E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f>Forecasting_주중!C3</f>
+        <v>413158</v>
+      </c>
+      <c r="L4" s="5">
+        <f>Forecasting_주중!D3</f>
+        <v>341750.09375</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+        <v>-71407.90625</v>
+      </c>
+      <c r="N4" s="17">
+        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+        <v>-0.17283437873646401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <f>Forecasting_전체!C4</f>
+        <v>712496</v>
+      </c>
+      <c r="D5" s="5">
+        <f>Forecasting_전체!D4</f>
+        <v>714080.375</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>1584.375</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>2.2236966944375828E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Forecasting_주말!C4</f>
+        <v>361826</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Forecasting_주말!D4</f>
+        <v>350198.15625</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="2"/>
+        <v>-11627.84375</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="3"/>
+        <v>-3.213656218734972E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f>Forecasting_주중!C4</f>
+        <v>350670</v>
+      </c>
+      <c r="L5" s="5">
+        <f>Forecasting_주중!D4</f>
+        <v>347997.5625</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="4"/>
+        <v>-2672.4375</v>
+      </c>
+      <c r="N5" s="17">
+        <f t="shared" si="5"/>
+        <v>-7.6209470442296177E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <f>Forecasting_전체!C5</f>
+        <v>648470</v>
+      </c>
+      <c r="D6" s="5">
+        <f>Forecasting_전체!D5</f>
+        <v>720170.75</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>71700.75</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>0.11056910882538899</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Forecasting_주말!C5</f>
+        <v>356106</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Forecasting_주말!D5</f>
+        <v>360567.96875</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="2"/>
+        <v>4461.96875</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="3"/>
+        <v>1.252988927454185E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Forecasting_주중!C5</f>
+        <v>292364</v>
+      </c>
+      <c r="L6" s="5">
+        <f>Forecasting_주중!D5</f>
+        <v>350960.8125</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="4"/>
+        <v>58596.8125</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="5"/>
+        <v>0.20042417158063236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5">
+        <f>Forecasting_전체!C6</f>
+        <v>729354</v>
+      </c>
+      <c r="D7" s="5">
+        <f>Forecasting_전체!D6</f>
+        <v>714426.8125</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>-14927.1875</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>-2.04663133402984E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Forecasting_주말!C6</f>
+        <v>332612</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Forecasting_주말!D6</f>
+        <v>301147.40625</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>-31464.59375</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.4598492387526614E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Forecasting_주중!C6</f>
+        <v>396742</v>
+      </c>
+      <c r="L7" s="5">
+        <f>Forecasting_주중!D6</f>
+        <v>350269.0625</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="4"/>
+        <v>-46472.9375</v>
+      </c>
+      <c r="N7" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.11713641989000409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <f>Forecasting_전체!C7</f>
+        <v>745932</v>
+      </c>
+      <c r="D8" s="5">
+        <f>Forecasting_전체!D7</f>
+        <v>721942.5625</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>-23989.4375</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>-3.216035442909005E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Forecasting_주말!C7</f>
+        <v>409660</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Forecasting_주말!D7</f>
+        <v>386434.3125</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="2"/>
+        <v>-23225.6875</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="3"/>
+        <v>-5.6695033686471712E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Forecasting_주중!C7</f>
+        <v>336272</v>
+      </c>
+      <c r="L8" s="5">
+        <f>Forecasting_주중!D7</f>
+        <v>354627.25</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="4"/>
+        <v>18355.25</v>
+      </c>
+      <c r="N8" s="17">
+        <f t="shared" si="5"/>
+        <v>5.4584532759194934E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Forecasting_전체!C8</f>
+        <v>840753</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Forecasting_전체!D8</f>
+        <v>760817.8125</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
+        <v>-79935.1875</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>-9.5075708918077012E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Forecasting_주말!C8</f>
+        <v>430802</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Forecasting_주말!D8</f>
+        <v>423417.9375</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>-7384.0625</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.7140269775906332E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Forecasting_주중!C8</f>
+        <v>409951</v>
+      </c>
+      <c r="L9" s="5">
+        <f>Forecasting_주중!D8</f>
+        <v>367159.28125</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="4"/>
+        <v>-42791.71875</v>
+      </c>
+      <c r="N9" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.10438252071589044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5">
+        <f>Forecasting_전체!C9</f>
+        <v>773778</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Forecasting_전체!D9</f>
+        <v>770357.0625</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>-3420.9375</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="1"/>
+        <v>-4.4210839543124773E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Forecasting_주말!C9</f>
+        <v>394892</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Forecasting_주말!D9</f>
+        <v>379029.5</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="2"/>
+        <v>-15862.5</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="3"/>
+        <v>-4.0169210822199486E-2</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Forecasting_주중!C9</f>
+        <v>378886</v>
+      </c>
+      <c r="L10" s="5">
+        <f>Forecasting_주중!D9</f>
+        <v>373114.96875</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="4"/>
+        <v>-5771.03125</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="5"/>
+        <v>-1.5231576912316634E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5">
+        <f>Forecasting_전체!C10</f>
+        <v>805939</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Forecasting_전체!D10</f>
+        <v>768675.75</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
+        <v>-37263.25</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
+        <v>-4.6235819336202862E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Forecasting_주말!C10</f>
+        <v>457940</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Forecasting_주말!D10</f>
+        <v>444373.875</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="2"/>
+        <v>-13566.125</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="3"/>
+        <v>-2.9624241166965104E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>Forecasting_주중!C10</f>
+        <v>347999</v>
+      </c>
+      <c r="L11" s="5">
+        <f>Forecasting_주중!D10</f>
+        <v>372208.34375</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" si="4"/>
+        <v>24209.34375</v>
+      </c>
+      <c r="N11" s="17">
+        <f t="shared" si="5"/>
+        <v>6.9567279647355304E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Forecasting_전체!C11</f>
+        <v>732365</v>
+      </c>
+      <c r="D12" s="5">
+        <f>Forecasting_전체!D11</f>
+        <v>766095</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
+        <v>33730</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
+        <v>4.60562697562008E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <f>Forecasting_주말!C11</f>
+        <v>339988</v>
+      </c>
+      <c r="H12" s="5">
+        <f>Forecasting_주말!D11</f>
+        <v>318402.96875</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="2"/>
+        <v>-21585.03125</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="3"/>
+        <v>-6.3487626769180086E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f>Forecasting_주중!C11</f>
+        <v>392377</v>
+      </c>
+      <c r="L12" s="5">
+        <f>Forecasting_주중!D11</f>
+        <v>380676.90625</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="4"/>
+        <v>-11700.09375</v>
+      </c>
+      <c r="N12" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.9818500447273924E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5">
+        <f>Forecasting_전체!C12</f>
+        <v>772313</v>
+      </c>
+      <c r="D13" s="5">
+        <f>Forecasting_전체!D12</f>
+        <v>771294.875</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1018.125</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
+        <v>-1.3182802827351088E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <f>Forecasting_주말!C12</f>
+        <v>361245</v>
+      </c>
+      <c r="H13" s="5">
+        <f>Forecasting_주말!D12</f>
+        <v>327304.59375</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="2"/>
+        <v>-33940.40625</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.3953982062035465E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f>Forecasting_주중!C12</f>
+        <v>411068</v>
+      </c>
+      <c r="L13" s="5">
+        <f>Forecasting_주중!D12</f>
+        <v>381819.3125</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="4"/>
+        <v>-29248.6875</v>
+      </c>
+      <c r="N13" s="17">
+        <f t="shared" si="5"/>
+        <v>-7.1152917522161782E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5">
+        <f>Forecasting_전체!C13</f>
+        <v>773749</v>
+      </c>
+      <c r="D14" s="5">
+        <f>Forecasting_전체!D13</f>
+        <v>796333.625</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>22584.625</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="1"/>
+        <v>2.9188567610426638E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f>Forecasting_주말!C13</f>
+        <v>461647</v>
+      </c>
+      <c r="H14" s="5">
+        <f>Forecasting_주말!D13</f>
+        <v>425219.875</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>-36427.125</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="3"/>
+        <v>-7.8906881231763662E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <f>Forecasting_주중!C13</f>
+        <v>312102</v>
+      </c>
+      <c r="L14" s="5">
+        <f>Forecasting_주중!D13</f>
+        <v>389194.125</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="4"/>
+        <v>77092.125</v>
+      </c>
+      <c r="N14" s="17">
+        <f t="shared" si="5"/>
+        <v>0.24700939116058213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="18">
+        <f>AVERAGE(C3:C14)</f>
+        <v>752990.16666666663</v>
+      </c>
+      <c r="D15" s="18">
+        <f>AVERAGE(D3:D14)</f>
+        <v>746676.5625</v>
+      </c>
+      <c r="E15" s="18">
+        <f>AVERAGE(E3:E14)</f>
+        <v>-6313.604166666667</v>
+      </c>
+      <c r="F15" s="17">
+        <f>AVERAGE(F3:F14)</f>
+        <v>-5.9128725944174081E-3</v>
+      </c>
+      <c r="G15" s="18">
+        <f>AVERAGE(G3:G14)</f>
+        <v>389055.66666666669</v>
+      </c>
+      <c r="H15" s="18">
+        <f>AVERAGE(H3:H14)</f>
+        <v>376154.69791666669</v>
+      </c>
+      <c r="I15" s="18">
+        <f>AVERAGE(I3:I14)</f>
+        <v>-12900.96875</v>
+      </c>
+      <c r="J15" s="17">
+        <f>AVERAGE(J3:J14)</f>
+        <v>-3.3132075575970095E-2</v>
+      </c>
+      <c r="K15" s="18">
+        <f>AVERAGE(K3:K14)</f>
+        <v>363934.5</v>
+      </c>
+      <c r="L15" s="18">
+        <f>AVERAGE(L3:L14)</f>
+        <v>362669.26041666669</v>
+      </c>
+      <c r="M15" s="18">
+        <f>AVERAGE(M3:M14)</f>
+        <v>-1265.2395833333333</v>
+      </c>
+      <c r="N15" s="17">
+        <f>AVERAGE(N3:N14)</f>
+        <v>8.7061863933429341E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project-KTXForecasting/Result/Shared_20240703/Forecasting_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240703/Forecasting_전라선.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7633B91-CB5F-4B70-A642-BF3BF8ADD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F88C293-C0C5-40B9-96CB-A05624D736A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance_전체" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Performance_주중" sheetId="5" r:id="rId5"/>
     <sheet name="Forecasting_주중" sheetId="6" r:id="rId6"/>
     <sheet name="수요예측정리" sheetId="7" r:id="rId7"/>
-    <sheet name="예측오차율" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>MSE</t>
   </si>
@@ -143,81 +142,6 @@
     <t>일평균</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>10월</t>
-  </si>
-  <si>
-    <t>11월</t>
-  </si>
-  <si>
-    <t>12월</t>
-  </si>
-  <si>
-    <t>2024년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3월</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평균오차 및 오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>실적치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예측치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오차율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -228,7 +152,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,15 +180,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,16 +224,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -347,26 +259,8 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="백분율" xfId="2" builtinId="5"/>
+  <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1434,13 +1328,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1489,7 +1383,7 @@
         <v>3.0674461019758341E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1409,7 @@
         <v>3.0674461019758341E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1435,7 @@
         <v>6.0045286177478022E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1567,7 +1461,7 @@
         <v>9.2910975190954009E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1593,7 +1487,7 @@
         <v>6.9694704633106397E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1513,7 @@
         <v>9.9220371105836314E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1645,7 +1539,7 @@
         <v>0.1102729392154851</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1671,7 +1565,7 @@
         <v>0.1163445300222927</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1591,7 @@
         <v>0.20175088477025099</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1738,9 +1632,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -1822,7 +1716,7 @@
         <v>690992.625</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -1863,7 +1757,7 @@
         <v>691558.375</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -1904,7 +1798,7 @@
         <v>689904.5625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -1945,7 +1839,7 @@
         <v>652497.75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -1986,7 +1880,7 @@
         <v>645961.1875</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -2027,7 +1921,7 @@
         <v>613841.9375</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -2068,7 +1962,7 @@
         <v>597535.0625</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -2109,7 +2003,7 @@
         <v>484000.53125</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -2150,7 +2044,7 @@
         <v>309629.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -2191,7 +2085,7 @@
         <v>376722.0625</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -2232,7 +2126,7 @@
         <v>529667.4375</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -2273,7 +2167,7 @@
         <v>548684.75</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -2314,7 +2208,7 @@
         <v>540756.5625</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -2355,7 +2249,7 @@
         <v>653552.0625</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -2396,7 +2290,7 @@
         <v>595391.8125</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -2437,7 +2331,7 @@
         <v>617353.875</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -2478,7 +2372,7 @@
         <v>533794.5625</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -2519,7 +2413,7 @@
         <v>526571.4375</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -2560,7 +2454,7 @@
         <v>526663.8125</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -2601,7 +2495,7 @@
         <v>553177.6875</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -2642,7 +2536,7 @@
         <v>553365.875</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -2683,7 +2577,7 @@
         <v>529093.875</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -2724,7 +2618,7 @@
         <v>563189</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -2765,7 +2659,7 @@
         <v>568367.625</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -2806,7 +2700,7 @@
         <v>563760.9375</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -2847,7 +2741,7 @@
         <v>478064.09375</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -2888,7 +2782,7 @@
         <v>296700.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -2929,7 +2823,7 @@
         <v>392618.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -2970,7 +2864,7 @@
         <v>409964.46875</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -3011,7 +2905,7 @@
         <v>470706.4375</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -3052,7 +2946,7 @@
         <v>605747.625</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -3093,7 +2987,7 @@
         <v>616118</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -3149,9 +3043,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3174,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3094,7 @@
         <v>4.8432122254335602E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3226,7 +3120,7 @@
         <v>7.1299610544637029E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3252,7 +3146,7 @@
         <v>8.7919406426475236E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3278,7 +3172,7 @@
         <v>8.4325762617506961E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3304,7 +3198,7 @@
         <v>8.4317777680173317E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3224,7 @@
         <v>8.4546698071025772E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3356,7 +3250,7 @@
         <v>0.11432193314113399</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3382,7 +3276,7 @@
         <v>0.1528175616183492</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3408,7 +3302,7 @@
         <v>0.18803514785282169</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3434,7 +3328,7 @@
         <v>0.34999519767665321</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -3460,7 +3354,7 @@
         <v>0.36277649626211173</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3486,7 +3380,7 @@
         <v>0.38289295383852912</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -3512,7 +3406,7 @@
         <v>0.39650978517399549</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -3553,9 +3447,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -3608,7 +3502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -3661,7 +3555,7 @@
         <v>304263.25</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -3714,7 +3608,7 @@
         <v>422214.03125</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -3767,7 +3661,7 @@
         <v>-1480657.375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -3820,7 +3714,7 @@
         <v>971886.375</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -3873,7 +3767,7 @@
         <v>-6551.15673828125</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -3926,7 +3820,7 @@
         <v>-111904.3984375</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -3979,7 +3873,7 @@
         <v>504230.84375</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -4032,7 +3926,7 @@
         <v>913927.1875</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -4085,7 +3979,7 @@
         <v>23308.6796875</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -4138,7 +4032,7 @@
         <v>1151425.25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -4191,7 +4085,7 @@
         <v>461579.75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -4244,7 +4138,7 @@
         <v>-219484.5625</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -4297,7 +4191,7 @@
         <v>-368900.1875</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -4350,7 +4244,7 @@
         <v>72239.2890625</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -4403,7 +4297,7 @@
         <v>-401432.40625</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -4456,7 +4350,7 @@
         <v>1280665</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -4509,7 +4403,7 @@
         <v>1133547.125</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -4562,7 +4456,7 @@
         <v>-304861.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -4615,7 +4509,7 @@
         <v>-260662</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -4668,7 +4562,7 @@
         <v>1278924</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -4721,7 +4615,7 @@
         <v>-288957.71875</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -4774,7 +4668,7 @@
         <v>720344.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -4827,7 +4721,7 @@
         <v>1182293.75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -4880,7 +4774,7 @@
         <v>39476.68359375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -4933,7 +4827,7 @@
         <v>96586.34375</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -4986,7 +4880,7 @@
         <v>692852.25</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -5039,7 +4933,7 @@
         <v>193624.25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -5092,7 +4986,7 @@
         <v>4560921</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -5145,7 +5039,7 @@
         <v>3026058.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -5198,7 +5092,7 @@
         <v>2852529.5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -5251,7 +5145,7 @@
         <v>9746397</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -5304,7 +5198,7 @@
         <v>17515636</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -5372,9 +5266,9 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5397,7 +5291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -5423,7 +5317,7 @@
         <v>7.0360098584758543E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -5449,7 +5343,7 @@
         <v>9.5595471600222262E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -5475,7 +5369,7 @@
         <v>0.10687403262813849</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5501,7 +5395,7 @@
         <v>0.10684655713306659</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -5527,7 +5421,7 @@
         <v>0.1200335384802101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5553,7 +5447,7 @@
         <v>0.12012930523045121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -5579,7 +5473,7 @@
         <v>0.11570203081010259</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -5605,7 +5499,7 @@
         <v>0.12793512776475061</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -5631,7 +5525,7 @@
         <v>0.18671487837288581</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -5657,7 +5551,7 @@
         <v>0.35708695015602321</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -5683,7 +5577,7 @@
         <v>0.35529483376154258</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -5709,7 +5603,7 @@
         <v>0.35973995926395252</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -5735,7 +5629,7 @@
         <v>0.36364887036311272</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -5776,9 +5670,9 @@
       <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -5831,7 +5725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>45017</v>
       </c>
@@ -5884,7 +5778,7 @@
         <v>374585.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>45047</v>
       </c>
@@ -5937,7 +5831,7 @@
         <v>885537.25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>45078</v>
       </c>
@@ -5990,7 +5884,7 @@
         <v>-399913.34375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
@@ -6043,7 +5937,7 @@
         <v>-1235493.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>45139</v>
       </c>
@@ -6096,7 +5990,7 @@
         <v>-1460897</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>45170</v>
       </c>
@@ -6149,7 +6043,7 @@
         <v>378822.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45200</v>
       </c>
@@ -6202,7 +6096,7 @@
         <v>354426.40625</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45231</v>
       </c>
@@ -6255,7 +6149,7 @@
         <v>1580897</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45261</v>
       </c>
@@ -6308,7 +6202,7 @@
         <v>234992.203125</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45292</v>
       </c>
@@ -6361,7 +6255,7 @@
         <v>-711799.125</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45323</v>
       </c>
@@ -6414,7 +6308,7 @@
         <v>630075.25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45352</v>
       </c>
@@ -6467,7 +6361,7 @@
         <v>460296.75</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
@@ -6520,7 +6414,7 @@
         <v>332182.65625</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45413</v>
       </c>
@@ -6573,7 +6467,7 @@
         <v>-730534</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45444</v>
       </c>
@@ -6626,7 +6520,7 @@
         <v>-1130135</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45474</v>
       </c>
@@ -6679,7 +6573,7 @@
         <v>1139524</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45505</v>
       </c>
@@ -6732,7 +6626,7 @@
         <v>1418439</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45536</v>
       </c>
@@ -6785,7 +6679,7 @@
         <v>-209235.640625</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45566</v>
       </c>
@@ -6838,7 +6732,7 @@
         <v>702444.5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45597</v>
       </c>
@@ -6891,7 +6785,7 @@
         <v>1715797.75</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45627</v>
       </c>
@@ -6944,7 +6838,7 @@
         <v>498341.8125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45658</v>
       </c>
@@ -6997,7 +6891,7 @@
         <v>-1148159.75</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45689</v>
       </c>
@@ -7050,7 +6944,7 @@
         <v>-61529.27734375</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45717</v>
       </c>
@@ -7103,7 +6997,7 @@
         <v>-492861.25</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45748</v>
       </c>
@@ -7156,7 +7050,7 @@
         <v>1667715.75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45778</v>
       </c>
@@ -7209,7 +7103,7 @@
         <v>1254868.75</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45809</v>
       </c>
@@ -7262,7 +7156,7 @@
         <v>650831.5625</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45839</v>
       </c>
@@ -7315,7 +7209,7 @@
         <v>3740306.75</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45870</v>
       </c>
@@ -7368,7 +7262,7 @@
         <v>4153865</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -7421,7 +7315,7 @@
         <v>11502943</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45931</v>
       </c>
@@ -7474,7 +7368,7 @@
         <v>25495334</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45962</v>
       </c>
@@ -7527,7 +7421,7 @@
         <v>32389732</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45992</v>
       </c>
@@ -7595,16 +7489,16 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
@@ -7621,7 +7515,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -7657,7 +7551,7 @@
         <v>NBEATS</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -7695,7 +7589,7 @@
         <v>342253.40625</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>31</v>
       </c>
@@ -7733,7 +7627,7 @@
         <v>341750.09375</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>30</v>
       </c>
@@ -7771,7 +7665,7 @@
         <v>347997.5625</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -7809,7 +7703,7 @@
         <v>350960.8125</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>31</v>
       </c>
@@ -7847,7 +7741,7 @@
         <v>350269.0625</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>30</v>
       </c>
@@ -7885,7 +7779,7 @@
         <v>354627.25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>31</v>
       </c>
@@ -7923,7 +7817,7 @@
         <v>367159.28125</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -7961,7 +7855,7 @@
         <v>373114.96875</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -7999,7 +7893,7 @@
         <v>372208.34375</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>31</v>
       </c>
@@ -8037,7 +7931,7 @@
         <v>380676.90625</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>29</v>
       </c>
@@ -8093,7 +7987,7 @@
       </c>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>31</v>
       </c>
@@ -8153,7 +8047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>30</v>
       </c>
@@ -8219,7 +8113,7 @@
         <v>22368.736111111109</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>31</v>
       </c>
@@ -8285,7 +8179,7 @@
         <v>22250.53125</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -8351,7 +8245,7 @@
         <v>25265.140625</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -8417,7 +8311,7 @@
         <v>21658.863486842107</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -8483,7 +8377,7 @@
         <v>24477.435661764706</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -8549,7 +8443,7 @@
         <v>24386.608455882353</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -8615,7 +8509,7 @@
         <v>22479.746710526317</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -8681,7 +8575,7 @@
         <v>27003.53125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -8747,7 +8641,7 @@
         <v>24522.947916666668</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -8813,7 +8707,7 @@
         <v>25263.234375</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -8879,7 +8773,7 @@
         <v>28200.99609375</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -8945,7 +8839,7 @@
         <v>27314.46875</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -9011,7 +8905,7 @@
         <v>25781.355902777777</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -9077,7 +8971,7 @@
         <v>27604.044117647059</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -9143,7 +9037,7 @@
         <v>28044.924632352941</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -9209,7 +9103,7 @@
         <v>24812.082236842107</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -9275,7 +9169,7 @@
         <v>30026.193359375</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9341,7 +9235,7 @@
         <v>27114.934027777777</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -9407,7 +9301,7 @@
         <v>26867.833333333332</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -9473,7 +9367,7 @@
         <v>30414.390625</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -9553,808 +9447,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD174EE-B869-4D43-A8AB-867CB449CB8D}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.58203125" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5">
-        <f>Forecasting_전체!C2</f>
-        <v>733238</v>
-      </c>
-      <c r="D3" s="5">
-        <f>Forecasting_전체!D2</f>
-        <v>717939.5</v>
-      </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
-        <v>-15298.5</v>
-      </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
-        <v>-2.0864303268515814E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <f>Forecasting_주말!C2</f>
-        <v>407613</v>
-      </c>
-      <c r="H3" s="5">
-        <f>Forecasting_주말!D2</f>
-        <v>419714.625</v>
-      </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
-        <v>12101.625</v>
-      </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
-        <v>2.9689006484091528E-2</v>
-      </c>
-      <c r="K3" s="5">
-        <f>Forecasting_주중!C2</f>
-        <v>325625</v>
-      </c>
-      <c r="L3" s="5">
-        <f>Forecasting_주중!D2</f>
-        <v>342253.40625</v>
-      </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
-        <v>16628.40625</v>
-      </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
-        <v>5.1066122840690981E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5">
-        <f>Forecasting_전체!C3</f>
-        <v>767495</v>
-      </c>
-      <c r="D4" s="5">
-        <f>Forecasting_전체!D3</f>
-        <v>737984.625</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
-        <v>-29510.375</v>
-      </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
-        <v>-3.8450250490231208E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <f>Forecasting_주말!C3</f>
-        <v>354337</v>
-      </c>
-      <c r="H4" s="5">
-        <f>Forecasting_주말!D3</f>
-        <v>378045.15625</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
-        <v>23708.15625</v>
-      </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
-        <v>6.6908497419123608E-2</v>
-      </c>
-      <c r="K4" s="5">
-        <f>Forecasting_주중!C3</f>
-        <v>413158</v>
-      </c>
-      <c r="L4" s="5">
-        <f>Forecasting_주중!D3</f>
-        <v>341750.09375</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
-        <v>-71407.90625</v>
-      </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
-        <v>-0.17283437873646401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5">
-        <f>Forecasting_전체!C4</f>
-        <v>712496</v>
-      </c>
-      <c r="D5" s="5">
-        <f>Forecasting_전체!D4</f>
-        <v>714080.375</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>1584.375</v>
-      </c>
-      <c r="F5" s="17">
-        <f t="shared" si="1"/>
-        <v>2.2236966944375828E-3</v>
-      </c>
-      <c r="G5" s="5">
-        <f>Forecasting_주말!C4</f>
-        <v>361826</v>
-      </c>
-      <c r="H5" s="5">
-        <f>Forecasting_주말!D4</f>
-        <v>350198.15625</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="2"/>
-        <v>-11627.84375</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="3"/>
-        <v>-3.213656218734972E-2</v>
-      </c>
-      <c r="K5" s="5">
-        <f>Forecasting_주중!C4</f>
-        <v>350670</v>
-      </c>
-      <c r="L5" s="5">
-        <f>Forecasting_주중!D4</f>
-        <v>347997.5625</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>-2672.4375</v>
-      </c>
-      <c r="N5" s="17">
-        <f t="shared" si="5"/>
-        <v>-7.6209470442296177E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5">
-        <f>Forecasting_전체!C5</f>
-        <v>648470</v>
-      </c>
-      <c r="D6" s="5">
-        <f>Forecasting_전체!D5</f>
-        <v>720170.75</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>71700.75</v>
-      </c>
-      <c r="F6" s="17">
-        <f t="shared" si="1"/>
-        <v>0.11056910882538899</v>
-      </c>
-      <c r="G6" s="5">
-        <f>Forecasting_주말!C5</f>
-        <v>356106</v>
-      </c>
-      <c r="H6" s="5">
-        <f>Forecasting_주말!D5</f>
-        <v>360567.96875</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>4461.96875</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="3"/>
-        <v>1.252988927454185E-2</v>
-      </c>
-      <c r="K6" s="5">
-        <f>Forecasting_주중!C5</f>
-        <v>292364</v>
-      </c>
-      <c r="L6" s="5">
-        <f>Forecasting_주중!D5</f>
-        <v>350960.8125</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>58596.8125</v>
-      </c>
-      <c r="N6" s="17">
-        <f t="shared" si="5"/>
-        <v>0.20042417158063236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="5">
-        <f>Forecasting_전체!C6</f>
-        <v>729354</v>
-      </c>
-      <c r="D7" s="5">
-        <f>Forecasting_전체!D6</f>
-        <v>714426.8125</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>-14927.1875</v>
-      </c>
-      <c r="F7" s="17">
-        <f t="shared" si="1"/>
-        <v>-2.04663133402984E-2</v>
-      </c>
-      <c r="G7" s="5">
-        <f>Forecasting_주말!C6</f>
-        <v>332612</v>
-      </c>
-      <c r="H7" s="5">
-        <f>Forecasting_주말!D6</f>
-        <v>301147.40625</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>-31464.59375</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="3"/>
-        <v>-9.4598492387526614E-2</v>
-      </c>
-      <c r="K7" s="5">
-        <f>Forecasting_주중!C6</f>
-        <v>396742</v>
-      </c>
-      <c r="L7" s="5">
-        <f>Forecasting_주중!D6</f>
-        <v>350269.0625</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>-46472.9375</v>
-      </c>
-      <c r="N7" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.11713641989000409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="5">
-        <f>Forecasting_전체!C7</f>
-        <v>745932</v>
-      </c>
-      <c r="D8" s="5">
-        <f>Forecasting_전체!D7</f>
-        <v>721942.5625</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>-23989.4375</v>
-      </c>
-      <c r="F8" s="17">
-        <f t="shared" si="1"/>
-        <v>-3.216035442909005E-2</v>
-      </c>
-      <c r="G8" s="5">
-        <f>Forecasting_주말!C7</f>
-        <v>409660</v>
-      </c>
-      <c r="H8" s="5">
-        <f>Forecasting_주말!D7</f>
-        <v>386434.3125</v>
-      </c>
-      <c r="I8" s="5">
-        <f t="shared" si="2"/>
-        <v>-23225.6875</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="3"/>
-        <v>-5.6695033686471712E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <f>Forecasting_주중!C7</f>
-        <v>336272</v>
-      </c>
-      <c r="L8" s="5">
-        <f>Forecasting_주중!D7</f>
-        <v>354627.25</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" si="4"/>
-        <v>18355.25</v>
-      </c>
-      <c r="N8" s="17">
-        <f t="shared" si="5"/>
-        <v>5.4584532759194934E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5">
-        <f>Forecasting_전체!C8</f>
-        <v>840753</v>
-      </c>
-      <c r="D9" s="5">
-        <f>Forecasting_전체!D8</f>
-        <v>760817.8125</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>-79935.1875</v>
-      </c>
-      <c r="F9" s="17">
-        <f t="shared" si="1"/>
-        <v>-9.5075708918077012E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>Forecasting_주말!C8</f>
-        <v>430802</v>
-      </c>
-      <c r="H9" s="5">
-        <f>Forecasting_주말!D8</f>
-        <v>423417.9375</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="2"/>
-        <v>-7384.0625</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="3"/>
-        <v>-1.7140269775906332E-2</v>
-      </c>
-      <c r="K9" s="5">
-        <f>Forecasting_주중!C8</f>
-        <v>409951</v>
-      </c>
-      <c r="L9" s="5">
-        <f>Forecasting_주중!D8</f>
-        <v>367159.28125</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" si="4"/>
-        <v>-42791.71875</v>
-      </c>
-      <c r="N9" s="17">
-        <f t="shared" si="5"/>
-        <v>-0.10438252071589044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5">
-        <f>Forecasting_전체!C9</f>
-        <v>773778</v>
-      </c>
-      <c r="D10" s="5">
-        <f>Forecasting_전체!D9</f>
-        <v>770357.0625</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>-3420.9375</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="1"/>
-        <v>-4.4210839543124773E-3</v>
-      </c>
-      <c r="G10" s="5">
-        <f>Forecasting_주말!C9</f>
-        <v>394892</v>
-      </c>
-      <c r="H10" s="5">
-        <f>Forecasting_주말!D9</f>
-        <v>379029.5</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="2"/>
-        <v>-15862.5</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="3"/>
-        <v>-4.0169210822199486E-2</v>
-      </c>
-      <c r="K10" s="5">
-        <f>Forecasting_주중!C9</f>
-        <v>378886</v>
-      </c>
-      <c r="L10" s="5">
-        <f>Forecasting_주중!D9</f>
-        <v>373114.96875</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" si="4"/>
-        <v>-5771.03125</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="5"/>
-        <v>-1.5231576912316634E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5">
-        <f>Forecasting_전체!C10</f>
-        <v>805939</v>
-      </c>
-      <c r="D11" s="5">
-        <f>Forecasting_전체!D10</f>
-        <v>768675.75</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>-37263.25</v>
-      </c>
-      <c r="F11" s="17">
-        <f t="shared" si="1"/>
-        <v>-4.6235819336202862E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>Forecasting_주말!C10</f>
-        <v>457940</v>
-      </c>
-      <c r="H11" s="5">
-        <f>Forecasting_주말!D10</f>
-        <v>444373.875</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="2"/>
-        <v>-13566.125</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="3"/>
-        <v>-2.9624241166965104E-2</v>
-      </c>
-      <c r="K11" s="5">
-        <f>Forecasting_주중!C10</f>
-        <v>347999</v>
-      </c>
-      <c r="L11" s="5">
-        <f>Forecasting_주중!D10</f>
-        <v>372208.34375</v>
-      </c>
-      <c r="M11" s="5">
-        <f t="shared" si="4"/>
-        <v>24209.34375</v>
-      </c>
-      <c r="N11" s="17">
-        <f t="shared" si="5"/>
-        <v>6.9567279647355304E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="5">
-        <f>Forecasting_전체!C11</f>
-        <v>732365</v>
-      </c>
-      <c r="D12" s="5">
-        <f>Forecasting_전체!D11</f>
-        <v>766095</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>33730</v>
-      </c>
-      <c r="F12" s="17">
-        <f t="shared" si="1"/>
-        <v>4.60562697562008E-2</v>
-      </c>
-      <c r="G12" s="5">
-        <f>Forecasting_주말!C11</f>
-        <v>339988</v>
-      </c>
-      <c r="H12" s="5">
-        <f>Forecasting_주말!D11</f>
-        <v>318402.96875</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>-21585.03125</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="3"/>
-        <v>-6.3487626769180086E-2</v>
-      </c>
-      <c r="K12" s="5">
-        <f>Forecasting_주중!C11</f>
-        <v>392377</v>
-      </c>
-      <c r="L12" s="5">
-        <f>Forecasting_주중!D11</f>
-        <v>380676.90625</v>
-      </c>
-      <c r="M12" s="5">
-        <f t="shared" si="4"/>
-        <v>-11700.09375</v>
-      </c>
-      <c r="N12" s="17">
-        <f t="shared" si="5"/>
-        <v>-2.9818500447273924E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5">
-        <f>Forecasting_전체!C12</f>
-        <v>772313</v>
-      </c>
-      <c r="D13" s="5">
-        <f>Forecasting_전체!D12</f>
-        <v>771294.875</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>-1018.125</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="1"/>
-        <v>-1.3182802827351088E-3</v>
-      </c>
-      <c r="G13" s="5">
-        <f>Forecasting_주말!C12</f>
-        <v>361245</v>
-      </c>
-      <c r="H13" s="5">
-        <f>Forecasting_주말!D12</f>
-        <v>327304.59375</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="2"/>
-        <v>-33940.40625</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="3"/>
-        <v>-9.3953982062035465E-2</v>
-      </c>
-      <c r="K13" s="5">
-        <f>Forecasting_주중!C12</f>
-        <v>411068</v>
-      </c>
-      <c r="L13" s="5">
-        <f>Forecasting_주중!D12</f>
-        <v>381819.3125</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="4"/>
-        <v>-29248.6875</v>
-      </c>
-      <c r="N13" s="17">
-        <f t="shared" si="5"/>
-        <v>-7.1152917522161782E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5">
-        <f>Forecasting_전체!C13</f>
-        <v>773749</v>
-      </c>
-      <c r="D14" s="5">
-        <f>Forecasting_전체!D13</f>
-        <v>796333.625</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>22584.625</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="1"/>
-        <v>2.9188567610426638E-2</v>
-      </c>
-      <c r="G14" s="5">
-        <f>Forecasting_주말!C13</f>
-        <v>461647</v>
-      </c>
-      <c r="H14" s="5">
-        <f>Forecasting_주말!D13</f>
-        <v>425219.875</v>
-      </c>
-      <c r="I14" s="5">
-        <f t="shared" si="2"/>
-        <v>-36427.125</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="3"/>
-        <v>-7.8906881231763662E-2</v>
-      </c>
-      <c r="K14" s="5">
-        <f>Forecasting_주중!C13</f>
-        <v>312102</v>
-      </c>
-      <c r="L14" s="5">
-        <f>Forecasting_주중!D13</f>
-        <v>389194.125</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>77092.125</v>
-      </c>
-      <c r="N14" s="17">
-        <f t="shared" si="5"/>
-        <v>0.24700939116058213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
-        <v>752990.16666666663</v>
-      </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
-        <v>746676.5625</v>
-      </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
-        <v>-6313.604166666667</v>
-      </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
-        <v>-5.9128725944174081E-3</v>
-      </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
-        <v>389055.66666666669</v>
-      </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
-        <v>376154.69791666669</v>
-      </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
-        <v>-12900.96875</v>
-      </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
-        <v>-3.3132075575970095E-2</v>
-      </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
-        <v>363934.5</v>
-      </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
-        <v>362669.26041666669</v>
-      </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
-        <v>-1265.2395833333333</v>
-      </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
-        <v>8.7061863933429341E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>